--- a/src/test/resources/players.xlsx
+++ b/src/test/resources/players.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -78,12 +78,18 @@
   </si>
   <si>
     <t>score</t>
+  </si>
+  <si>
+    <t>birth_date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,8 +119,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,13 +430,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,8 +457,11 @@
       <c r="E1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -462,8 +477,11 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="1">
+        <v>29305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -479,8 +497,11 @@
       <c r="E3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="1">
+        <v>27943</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -496,8 +517,11 @@
       <c r="E4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="1">
+        <v>31272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -513,8 +537,11 @@
       <c r="E5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="1">
+        <v>33134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -530,8 +557,11 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="1">
+        <v>33647</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -547,8 +577,12 @@
       <c r="E7" t="s">
         <v>14</v>
       </c>
+      <c r="F7" s="1">
+        <v>28516</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/players.xlsx
+++ b/src/test/resources/players.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>birth_date</t>
+  </si>
+  <si>
+    <t>Lim</t>
+  </si>
+  <si>
+    <t>Black</t>
   </si>
 </sst>
 </file>
@@ -88,7 +94,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -121,7 +127,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,6 +587,23 @@
         <v>28516</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1">
+        <v>32511</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/test/resources/players.xlsx
+++ b/src/test/resources/players.xlsx
@@ -93,9 +93,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -127,7 +124,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,7 +436,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
